--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/4.1 Plantilla_Vehiculos_electricos_Consumo.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/4.1 Plantilla_Vehiculos_electricos_Consumo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E28883-8764-4A29-BD9C-8E1D2DE1B8E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BFAFF-791B-4294-BD83-75EFB1951867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{404BD825-DD8F-4BD6-BD9D-EC9C81DC8949}"/>
   </bookViews>
@@ -38,42 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dell</author>
-  </authors>
-  <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{19840F98-BCD1-4969-AF06-1D575C54E886}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Año</t>
   </si>
@@ -149,12 +115,15 @@
   <si>
     <t>Placa del vehículo eléctrico. Inserte su dato.</t>
   </si>
+  <si>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,17 +148,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -218,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -265,11 +228,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +308,15 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,11 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE5F59-D557-4A84-9E15-1D54D969FD3F}">
-  <dimension ref="A1:G311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE5F59-D557-4A84-9E15-1D54D969FD3F}">
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,64 +672,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2018</v>
       </c>
-      <c r="B3" s="13">
-        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_tipve,2,)</f>
+      <c r="B4" s="13">
+        <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,Tabla_tipve,2,)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13">
-        <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_combustible,2,)</f>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_combustible,2,)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F4" s="14">
         <v>222</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -768,19 +773,19 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -1655,12 +1660,12 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="e">
-        <f t="shared" ref="B67:B130" si="2">VLOOKUP(C67,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11" t="e">
-        <f t="shared" ref="D67:D130" si="3">VLOOKUP(E67,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E67" s="11"/>
@@ -1670,12 +1675,12 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B68:B131" si="2">VLOOKUP(C68,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D68:D131" si="3">VLOOKUP(E68,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E68" s="11"/>
@@ -2615,12 +2620,12 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11" t="e">
-        <f t="shared" ref="B131:B194" si="4">VLOOKUP(C131,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="11" t="e">
-        <f t="shared" ref="D131:D194" si="5">VLOOKUP(E131,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E131" s="11"/>
@@ -2630,12 +2635,12 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B132:B195" si="4">VLOOKUP(C132,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D132:D195" si="5">VLOOKUP(E132,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E132" s="11"/>
@@ -3575,12 +3580,12 @@
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11" t="e">
-        <f t="shared" ref="B195:B258" si="6">VLOOKUP(C195,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="e">
-        <f t="shared" ref="D195:D258" si="7">VLOOKUP(E195,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E195" s="11"/>
@@ -3590,12 +3595,12 @@
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B196:B259" si="6">VLOOKUP(C196,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D196:D259" si="7">VLOOKUP(E196,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E196" s="11"/>
@@ -4535,12 +4540,12 @@
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
       <c r="B259" s="11" t="e">
-        <f t="shared" ref="B259:B322" si="8">VLOOKUP(C259,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C259" s="11"/>
       <c r="D259" s="11" t="e">
-        <f t="shared" ref="D259:D322" si="9">VLOOKUP(E259,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E259" s="11"/>
@@ -4550,12 +4555,12 @@
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="11"/>
       <c r="B260" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B260:B312" si="8">VLOOKUP(C260,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D260:D312" si="9">VLOOKUP(E260,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E260" s="11"/>
@@ -5327,26 +5332,43 @@
       <c r="F311" s="12"/>
       <c r="G311" s="12"/>
     </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="11"/>
+      <c r="B312" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E312" s="11"/>
+      <c r="F312" s="12"/>
+      <c r="G312" s="12"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6yfmXwQlB7EyYxMFR7q1Kroa+o3SuPGuh2hwxZ/6cr9KvE7eUT41VuFUl0UlGzE+ZxM3bPv9vXWkYVNEv5Ui0Q==" saltValue="ablAKOAs8Udqu5fWDFDcyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Eu+Fq9ET3iWLMt7eKFjhomfL6j+Px5MSF4cFVf9Z/IxH8VpbZ3oIAlVno73CSQi1RD0YlG4C21VA7ienUh9MLA==" saltValue="XeX4b54eo0s8BDyK8gDKGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{CDD6B574-3AFB-4560-957C-6F7C0CA0C5D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A312" xr:uid="{CDD6B574-3AFB-4560-957C-6F7C0CA0C5D4}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C311" xr:uid="{FD34BEB7-6634-406C-95FD-35DE82472AB3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C312" xr:uid="{FD34BEB7-6634-406C-95FD-35DE82472AB3}">
       <formula1>Lista_Tipve</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E311" xr:uid="{9AA70F2C-A5B0-435A-A4D0-ABA1394D6E3A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E312" xr:uid="{9AA70F2C-A5B0-435A-A4D0-ABA1394D6E3A}">
       <formula1>Lista_combustible</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="F3:F311" xr:uid="{5EE1052B-03BB-4647-8BC6-6FD5D6DA446D}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="F4:F312" xr:uid="{5EE1052B-03BB-4647-8BC6-6FD5D6DA446D}">
       <formula1>0</formula1>
       <formula2>9999999.99</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
